--- a/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test28.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test28.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>CIN5</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Strain</t>
   </si>
   <si>
-    <t>Deletion</t>
-  </si>
-  <si>
     <t>wt</t>
   </si>
   <si>
@@ -107,13 +104,16 @@
     <t>production_rate</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Sigmoid</t>
   </si>
   <si>
     <t>targets/regulators</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -614,10 +614,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -776,10 +776,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -900,7 +900,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1150,7 +1150,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -1439,7 +1439,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -1534,7 +1534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -1561,7 +1561,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1673,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1682,27 +1682,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1710,7 +1698,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1718,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1726,7 +1714,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1734,7 +1722,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1742,7 +1730,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1750,99 +1738,96 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B14" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C14">
+        <v>0.8</v>
+      </c>
+      <c r="D14">
+        <v>1.2</v>
+      </c>
+      <c r="E14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="C13">
-        <v>0.8</v>
-      </c>
-      <c r="D13">
-        <v>1.2</v>
-      </c>
-      <c r="E13">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="B16" s="7">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1928,10 +1913,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test28.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test28.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\perturbation_tests\to_be_reformatted\seaver_L-curve\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>CIN5</t>
   </si>
@@ -72,9 +77,6 @@
   </si>
   <si>
     <t>fix_b</t>
-  </si>
-  <si>
-    <t>Sheet</t>
   </si>
   <si>
     <t>dcin5</t>
@@ -119,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -170,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -178,7 +180,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -198,7 +199,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -273,6 +274,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -599,31 +603,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -632,7 +636,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -641,7 +645,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -651,7 +655,7 @@
       <c r="D4" s="5"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -661,94 +665,94 @@
       <c r="D5" s="5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
       <c r="D13" s="5"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19" s="4"/>
       <c r="D19" s="5"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20" s="4"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
       <c r="G22"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D24" s="5"/>
     </row>
   </sheetData>
@@ -760,29 +764,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -790,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -798,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -806,7 +810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -814,71 +818,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
     </row>
@@ -891,244 +895,244 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="10">
         <v>0.4</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>0.4</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="12">
         <v>0.8</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="13">
         <v>0.8</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="14">
         <v>0.8</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="15">
         <v>1.2000000000000002</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="16">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="17">
         <v>1.2</v>
       </c>
-      <c r="K1" s="19">
+      <c r="K1" s="18">
         <v>1.6</v>
       </c>
-      <c r="L1" s="20">
+      <c r="L1" s="19">
         <v>1.6</v>
       </c>
-      <c r="M1" s="21">
+      <c r="M1" s="20">
         <v>1.6</v>
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="17">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="18">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="19">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="20">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="19">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="20">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>0.26929382132237512</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.26929382132237512</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>0.26929382132237512</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>0.41593537248224854</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>0.41593537248224854</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>0.41593537248224854</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>0.49751163358969142</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <v>0.49751163358969142</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>0.49751163358969142</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <v>0.54159993841241572</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <v>0.54159993841241572</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="20">
         <v>0.54159993841241572</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="20">
         <v>-1.1097262320569594</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F6" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I10" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F12" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="L20" s="2"/>
     </row>
@@ -1141,264 +1145,264 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="9">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8">
         <v>0.4</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="8">
         <v>0.4</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="8">
         <v>0.4</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="8">
         <v>0.8</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="8">
         <v>0.8</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="8">
         <v>0.8</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="8">
         <v>1.2000000000000002</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="8">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="8">
         <v>1.2</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="8">
         <v>1.6</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="8">
         <v>1.6</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="8">
         <v>1.6</v>
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K7" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
       <c r="K22" s="2"/>
       <c r="M22" s="2"/>
     </row>
@@ -1410,36 +1414,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>27</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -1454,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1471,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1488,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1531,37 +1535,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.87890625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.46875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>27</v>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1593,71 +1597,71 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>1.0089999999999999</v>
       </c>
-      <c r="C2" s="23">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="23">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23">
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
         <v>1.002</v>
       </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="B4" s="22">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
         <v>1.0089999999999999</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>1.0029999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="23">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0</v>
-      </c>
-      <c r="D5" s="23">
+      <c r="B5" s="22">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22">
         <v>1.0069999999999999</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>1.0069999999999999</v>
       </c>
     </row>
@@ -1670,19 +1674,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1690,7 +1694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1698,7 +1702,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1706,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1714,7 +1718,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1722,7 +1726,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1730,7 +1734,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1738,59 +1742,59 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="8">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7">
         <v>0.4</v>
       </c>
       <c r="C14">
@@ -1803,7 +1807,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1811,85 +1815,74 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
         <v>0.1</v>
       </c>
-      <c r="D17">
+      <c r="D16">
         <v>0.2</v>
       </c>
-      <c r="E17">
+      <c r="E16">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F17">
+      <c r="F16">
         <v>0.4</v>
       </c>
-      <c r="G17">
+      <c r="G16">
         <v>0.5</v>
       </c>
-      <c r="H17">
+      <c r="H16">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I17">
+      <c r="I16">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J17">
+      <c r="J16">
         <v>0.8</v>
       </c>
-      <c r="K17">
+      <c r="K16">
         <v>0.9</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N17">
+      <c r="N16">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O17">
+      <c r="O16">
         <v>1.3</v>
       </c>
-      <c r="P17">
+      <c r="P16">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="Q16">
         <v>1.5</v>
       </c>
-      <c r="R17">
+      <c r="R16">
         <v>1.6</v>
       </c>
-      <c r="S17">
+      <c r="S16">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T17">
+      <c r="T16">
         <v>1.8</v>
       </c>
-      <c r="U17">
+      <c r="U16">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V17">
+      <c r="V16">
         <v>2</v>
       </c>
     </row>
@@ -1902,24 +1895,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>23</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1927,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1935,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1943,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1951,10 +1944,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
   </sheetData>

--- a/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test28.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test28.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -925,10 +925,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="15">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="16">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="17">
         <v>1.2</v>
@@ -949,40 +949,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="10">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="11">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="12">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="13">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="14">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="15">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="16">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="17">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="18">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="19">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="20">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -990,40 +990,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="10">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="11">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="13">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="14">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="15">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="16">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="17">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="18">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="19">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="20">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1031,40 +1031,40 @@
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="C4" s="10">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="D4" s="11">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="E4" s="12">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="F4" s="13">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="G4" s="14">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="H4" s="15">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="I4" s="16">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="J4" s="17">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="K4" s="18">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="L4" s="19">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="M4" s="20">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1072,40 +1072,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="C5" s="10">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="E5" s="12">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="F5" s="13">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="G5" s="14">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="H5" s="15">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="I5" s="16">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="J5" s="17">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="K5" s="18">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="L5" s="19">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="M5" s="20">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1175,10 +1175,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="8">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="8">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="8">
         <v>1.2</v>
@@ -1199,40 +1199,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1240,40 +1240,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1322,40 +1322,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="C5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="D5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="E5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="F5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="G5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="K5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="L5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="M5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1832,7 +1832,7 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F16">
         <v>0.4</v>
@@ -1841,10 +1841,10 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="I16">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="J16">
         <v>0.8</v>
@@ -1859,13 +1859,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O16">
         <v>1.3</v>
       </c>
       <c r="P16">
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q16">
         <v>1.5</v>
@@ -1874,13 +1874,13 @@
         <v>1.6</v>
       </c>
       <c r="S16">
-        <v>1.7000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="T16">
         <v>1.8</v>
       </c>
       <c r="U16">
-        <v>1.9000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
         <v>2</v>

--- a/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test28.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test28.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\perturbation_tests\to_be_reformatted\seaver_L-curve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\old_grnmap\GRNmap\GRNmap-7d\test_files\perturbation_tests\to_be_reformatted\seaver_L-curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -898,7 +898,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -949,40 +951,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="10">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="D2" s="11">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="12">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="13">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="G2" s="14">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="15">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="16">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="J2" s="17">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="18">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="19">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="M2" s="20">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -990,40 +992,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="10">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="D3" s="11">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="13">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="G3" s="14">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="15">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="16">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="J3" s="17">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="18">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="19">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="M3" s="20">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1031,40 +1033,40 @@
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="C4" s="10">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="D4" s="11">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="E4" s="12">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="F4" s="13">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="G4" s="14">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="H4" s="15">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="I4" s="16">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="J4" s="17">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="K4" s="18">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="L4" s="19">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="M4" s="20">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1072,40 +1074,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="C5" s="10">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="E5" s="12">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="F5" s="13">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="G5" s="14">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="H5" s="15">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="I5" s="16">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="J5" s="17">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="K5" s="18">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="L5" s="19">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="M5" s="20">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1148,7 +1150,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1199,40 +1203,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="D2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="G2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="J2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="M2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1240,40 +1244,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="D3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="G3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="J3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="M3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1322,40 +1326,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="C5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="D5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="E5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="F5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="G5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="K5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="L5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="M5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1832,7 +1836,7 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>0.3</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="F16">
         <v>0.4</v>
@@ -1841,10 +1845,10 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.6</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I16">
-        <v>0.7</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="J16">
         <v>0.8</v>
@@ -1859,13 +1863,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16">
-        <v>1.2</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="O16">
         <v>1.3</v>
       </c>
       <c r="P16">
-        <v>1.4</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="Q16">
         <v>1.5</v>
@@ -1874,13 +1878,13 @@
         <v>1.6</v>
       </c>
       <c r="S16">
-        <v>1.7</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="T16">
         <v>1.8</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="V16">
         <v>2</v>
@@ -1898,7 +1902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
